--- a/Data/EC/NIT-9014409070.xlsx
+++ b/Data/EC/NIT-9014409070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34CB83DC-9FFD-4A5F-A2C3-3205FF727566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0975E5C-55E9-4767-952F-1CB0B9424476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D397F114-0733-4FD8-B8CF-C30D5B18478D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D126F56-0477-4CE2-8B61-DF746BA872CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,7 +71,7 @@
     <t>PEDRO MANUEL PEREZ GARCIA</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>73213227</t>
@@ -156,12 +156,6 @@
   </si>
   <si>
     <t>MIGUEL ANGEL PEREZ CARMONA</t>
-  </si>
-  <si>
-    <t>73086885</t>
-  </si>
-  <si>
-    <t>EMIRO DE JESUS LARA TORRES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -260,7 +254,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -273,9 +269,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -475,23 +469,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -519,10 +513,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D04DB9B-F5FA-3D58-FCA2-CC24911B098B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5098AEB3-28AF-A2EA-9D72-7F66FCE7F9AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,8 +920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1C35DA-538D-4CE5-8C50-1A900FDE233E}">
-  <dimension ref="B2:J37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFD186-2FAC-4FA8-BBC7-8295AE8631E5}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -951,7 +945,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -996,7 +990,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1028,12 +1022,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>925160</v>
+        <v>868220</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1044,14 +1038,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1081,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1130,7 +1124,7 @@
         <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1413,79 +1407,56 @@
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="24">
         <v>56940</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="24">
         <v>1423500</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G31" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="32"/>
       <c r="H36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B37:C37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014409070.xlsx
+++ b/Data/EC/NIT-9014409070.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0975E5C-55E9-4767-952F-1CB0B9424476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE67A50-ACF9-49C1-995B-193C11E62050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0D126F56-0477-4CE2-8B61-DF746BA872CE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0DD6A5E1-4D3B-4635-B0F8-2BE7C729016C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>PEDRO MANUEL PEREZ GARCIA</t>
   </si>
   <si>
-    <t>2508</t>
+    <t>2509</t>
   </si>
   <si>
     <t>73213227</t>
@@ -254,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -269,7 +267,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -463,29 +463,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,19 +504,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,7 +575,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5098AEB3-28AF-A2EA-9D72-7F66FCE7F9AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CB1CF6-6C40-3DEE-7399-CF49FB1F9B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EFD186-2FAC-4FA8-BBC7-8295AE8631E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCF0D4C-3F99-4759-81C6-9568E68F5E85}">
   <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -943,49 +949,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -993,7 +999,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9014409070</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>868220</v>
       </c>
@@ -1094,18 +1100,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>56940</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1423500</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1117,18 +1123,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>60000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1500000</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1140,18 +1146,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>56940</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1163,18 +1169,18 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>56940</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1186,18 +1192,18 @@
       <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>56940</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1423500</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1209,18 +1215,18 @@
       <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>56940</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1232,18 +1238,18 @@
       <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>56940</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1423500</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1255,18 +1261,18 @@
       <c r="D23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>56940</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1278,18 +1284,18 @@
       <c r="D24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>56940</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1423500</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1301,18 +1307,18 @@
       <c r="D25" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>56940</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1324,18 +1330,18 @@
       <c r="D26" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>68000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1700000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1347,18 +1353,18 @@
       <c r="D27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>56940</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1423500</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1370,18 +1376,18 @@
       <c r="D28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>56940</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1423500</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1393,47 +1399,47 @@
       <c r="D29" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>56940</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>1423500</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="26">
         <v>56940</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="26">
         <v>1423500</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1441,10 +1447,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="32"/>
+      <c r="C36" s="34"/>
       <c r="H36" s="1" t="s">
         <v>50</v>
       </c>
